--- a/data/RespirationRate/Block3_Day15_plate2_results_Oxygen.xlsx
+++ b/data/RespirationRate/Block3_Day15_plate2_results_Oxygen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PreSens\SDR_v4.0.0\Resource Quality Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/mlfearon_umich_edu/Documents/PROJECTS/MHMP Daphnia Duffy/Resource Quality/Data and Code/resource-quality-expt/data/RespirationRate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3DBC714-DE1F-4A84-AB39-63C88164F732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A3DBC714-DE1F-4A84-AB39-63C88164F732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{667323BE-EC67-47C5-B785-41D32662CA48}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2040" windowWidth="14385" windowHeight="8085" xr2:uid="{DD7BD0AA-42C6-4D2E-AC51-3D0DA699808D}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="21600" windowHeight="11270" xr2:uid="{DD7BD0AA-42C6-4D2E-AC51-3D0DA699808D}"/>
   </bookViews>
   <sheets>
     <sheet name="Oxygen Orginal" sheetId="2" r:id="rId1"/>
@@ -821,11 +821,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4F21F2-2625-4B65-822E-F9355E9EA86A}">
   <dimension ref="A1:AF86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:XFD12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -868,7 +870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -882,7 +884,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -902,7 +904,7 @@
         <v>46.95</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -916,7 +918,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -930,7 +932,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H7" t="s">
         <v>27</v>
       </c>
@@ -938,7 +940,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -946,7 +948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1133,7 +1135,7 @@
         <v>21.48</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>21.54</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1317,7 +1319,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1501,7 +1503,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1593,7 +1595,7 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1685,7 +1687,7 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1869,7 +1871,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2145,7 +2147,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2237,7 +2239,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2329,7 +2331,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -2421,7 +2423,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -2513,7 +2515,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -2605,7 +2607,7 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -2697,7 +2699,7 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2789,7 +2791,7 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2881,7 +2883,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2973,7 +2975,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -3065,7 +3067,7 @@
         <v>21.77</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -3157,7 +3159,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -3249,7 +3251,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -3341,7 +3343,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -3433,7 +3435,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -3525,7 +3527,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -3617,7 +3619,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -3801,7 +3803,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -3893,7 +3895,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -3985,7 +3987,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -4077,7 +4079,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -4169,7 +4171,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -4261,7 +4263,7 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -4353,7 +4355,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -4445,7 +4447,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -4537,7 +4539,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -4813,7 +4815,7 @@
         <v>21.58</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -4905,7 +4907,7 @@
         <v>21.58</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -4997,7 +4999,7 @@
         <v>21.54</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -5089,7 +5091,7 @@
         <v>21.54</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -5181,7 +5183,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -5273,7 +5275,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>107</v>
       </c>
@@ -5365,7 +5367,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -5457,7 +5459,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -5549,7 +5551,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -5641,7 +5643,7 @@
         <v>21.49</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -5733,7 +5735,7 @@
         <v>21.49</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -5825,7 +5827,7 @@
         <v>21.49</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>113</v>
       </c>
@@ -5917,7 +5919,7 @@
         <v>21.48</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -6009,7 +6011,7 @@
         <v>21.48</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -6101,7 +6103,7 @@
         <v>21.49</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -6193,7 +6195,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -6285,7 +6287,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -6377,7 +6379,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -6469,7 +6471,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -6561,7 +6563,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -6653,7 +6655,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -6745,7 +6747,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -6837,7 +6839,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -6929,7 +6931,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -7021,7 +7023,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -7113,7 +7115,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -7205,7 +7207,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -7297,7 +7299,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -7389,7 +7391,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>130</v>
       </c>
@@ -7481,7 +7483,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -7573,7 +7575,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>132</v>
       </c>
@@ -7665,7 +7667,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -7768,7 +7770,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
